--- a/resources/Stress Test.xlsx
+++ b/resources/Stress Test.xlsx
@@ -129,7 +129,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +164,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
   </fills>
@@ -216,10 +222,10 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4780,20 +4786,20 @@
         <v>1500.0</v>
       </c>
       <c r="E11" s="4">
-        <v>7500.0</v>
+        <v>7800.0</v>
       </c>
       <c r="F11" s="6">
         <v>0.0</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12" ht="32.25" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
@@ -4802,11 +4808,11 @@
     <row r="13" ht="32.25" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="32.25" customHeight="1">
       <c r="A14" s="2"/>
@@ -4814,7 +4820,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="32.25" customHeight="1">
@@ -4823,19 +4829,28 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" ht="32.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" ht="32.25" customHeight="1"/>
+    <row r="17" ht="32.25" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="32.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F2"/>
